--- a/modified_iris.xlsx
+++ b/modified_iris.xlsx
@@ -1244,7 +1244,7 @@
         <v>4.5</v>
       </c>
       <c r="B43" t="n">
-        <v>324</v>
+        <v>869</v>
       </c>
       <c r="C43" t="n">
         <v>1.3</v>
@@ -1472,7 +1472,7 @@
         <v>5.5</v>
       </c>
       <c r="B55" t="n">
-        <v>324</v>
+        <v>869</v>
       </c>
       <c r="C55" t="n">
         <v>4</v>
@@ -2118,7 +2118,7 @@
         <v>6.3</v>
       </c>
       <c r="B89" t="n">
-        <v>324</v>
+        <v>869</v>
       </c>
       <c r="C89" t="n">
         <v>4.4</v>
@@ -2232,7 +2232,7 @@
         <v>5</v>
       </c>
       <c r="B95" t="n">
-        <v>324</v>
+        <v>869</v>
       </c>
       <c r="C95" t="n">
         <v>3.3</v>
@@ -2656,7 +2656,7 @@
         <v>5.3</v>
       </c>
       <c r="D117" t="n">
-        <v>324</v>
+        <v>869</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>6.9</v>
       </c>
       <c r="D120" t="n">
-        <v>324</v>
+        <v>869</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>5.7</v>
       </c>
       <c r="D122" t="n">
-        <v>324</v>
+        <v>869</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>6.1</v>
       </c>
       <c r="D137" t="n">
-        <v>324</v>
+        <v>869</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>5.1</v>
       </c>
       <c r="D143" t="n">
-        <v>324</v>
+        <v>869</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>5.9</v>
       </c>
       <c r="D145" t="n">
-        <v>324</v>
+        <v>869</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>5.2</v>
       </c>
       <c r="D147" t="n">
-        <v>324</v>
+        <v>869</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>5.4</v>
       </c>
       <c r="D150" t="n">
-        <v>324</v>
+        <v>869</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>

--- a/modified_iris.xlsx
+++ b/modified_iris.xlsx
@@ -1244,7 +1244,7 @@
         <v>4.5</v>
       </c>
       <c r="B43" t="n">
-        <v>869</v>
+        <v>2.3</v>
       </c>
       <c r="C43" t="n">
         <v>1.3</v>
@@ -1472,7 +1472,7 @@
         <v>5.5</v>
       </c>
       <c r="B55" t="n">
-        <v>869</v>
+        <v>2.3</v>
       </c>
       <c r="C55" t="n">
         <v>4</v>
@@ -1801,7 +1801,7 @@
         <v>4.8</v>
       </c>
       <c r="D72" t="n">
-        <v>1.8</v>
+        <v>611</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>6.3</v>
       </c>
       <c r="B89" t="n">
-        <v>869</v>
+        <v>2.3</v>
       </c>
       <c r="C89" t="n">
         <v>4.4</v>
@@ -2232,7 +2232,7 @@
         <v>5</v>
       </c>
       <c r="B95" t="n">
-        <v>869</v>
+        <v>2.3</v>
       </c>
       <c r="C95" t="n">
         <v>3.3</v>
@@ -2428,7 +2428,7 @@
         <v>5.6</v>
       </c>
       <c r="D105" t="n">
-        <v>1.8</v>
+        <v>611</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>6.3</v>
       </c>
       <c r="D109" t="n">
-        <v>1.8</v>
+        <v>611</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>5.8</v>
       </c>
       <c r="D110" t="n">
-        <v>1.8</v>
+        <v>611</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>5.3</v>
       </c>
       <c r="D117" t="n">
-        <v>869</v>
+        <v>2.3</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>5.5</v>
       </c>
       <c r="D118" t="n">
-        <v>1.8</v>
+        <v>611</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>6.9</v>
       </c>
       <c r="D120" t="n">
-        <v>869</v>
+        <v>2.3</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>5.7</v>
       </c>
       <c r="D122" t="n">
-        <v>869</v>
+        <v>2.3</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>4.9</v>
       </c>
       <c r="D125" t="n">
-        <v>1.8</v>
+        <v>611</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1.8</v>
+        <v>611</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>4.8</v>
       </c>
       <c r="D128" t="n">
-        <v>1.8</v>
+        <v>611</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>4.9</v>
       </c>
       <c r="D129" t="n">
-        <v>1.8</v>
+        <v>611</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>6.1</v>
       </c>
       <c r="D137" t="n">
-        <v>869</v>
+        <v>2.3</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>5.5</v>
       </c>
       <c r="D139" t="n">
-        <v>1.8</v>
+        <v>611</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>4.8</v>
       </c>
       <c r="D140" t="n">
-        <v>1.8</v>
+        <v>611</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>5.1</v>
       </c>
       <c r="D143" t="n">
-        <v>869</v>
+        <v>2.3</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>5.9</v>
       </c>
       <c r="D145" t="n">
-        <v>869</v>
+        <v>2.3</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>5.2</v>
       </c>
       <c r="D147" t="n">
-        <v>869</v>
+        <v>2.3</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>5.4</v>
       </c>
       <c r="D150" t="n">
-        <v>869</v>
+        <v>2.3</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>5.1</v>
       </c>
       <c r="D151" t="n">
-        <v>1.8</v>
+        <v>611</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
